--- a/resources/templates/results.xlsx
+++ b/resources/templates/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="468" windowWidth="38400" windowHeight="21138" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>IP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>NetworkId</t>
+  </si>
+  <si>
+    <t>NetworkName</t>
+  </si>
+  <si>
+    <t>Converts</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>CPLink</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>TotalClicks</t>
+  </si>
+  <si>
+    <t>EndDate</t>
   </si>
 </sst>
 </file>
@@ -359,19 +374,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.34765625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +394,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
